--- a/Tables/Skill.xlsx
+++ b/Tables/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>名称</t>
   </si>
@@ -22,6 +22,9 @@
     <t>编号</t>
   </si>
   <si>
+    <t>表现</t>
+  </si>
+  <si>
     <t>冷却</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>ID</t>
   </si>
   <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
     <t>CD</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>1000001</t>
+  </si>
+  <si>
+    <t>pingshe</t>
   </si>
   <si>
     <t>1500</t>
@@ -1045,21 +1054,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="2" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,69 +1081,81 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Skill.xlsx
+++ b/Tables/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>名称</t>
   </si>
@@ -31,6 +31,9 @@
     <t>攻击倍率</t>
   </si>
   <si>
+    <t>击中效果</t>
+  </si>
+  <si>
     <t>条件</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>AtkInc</t>
   </si>
   <si>
+    <t>HitEffects</t>
+  </si>
+  <si>
     <t>Condition</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>list</t>
+  </si>
+  <si>
     <t>condition_list</t>
   </si>
   <si>
@@ -83,6 +92,24 @@
   </si>
   <si>
     <t>400</t>
+  </si>
+  <si>
+    <t>寒冰弹</t>
+  </si>
+  <si>
+    <t>2000001</t>
+  </si>
+  <si>
+    <t>hanbingdan</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>目标状态:1000</t>
   </si>
 </sst>
 </file>
@@ -1054,21 +1081,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="24.125" customWidth="1"/>
-    <col min="7" max="7" width="23.875" customWidth="1"/>
+    <col min="2" max="6" width="23.875" customWidth="1"/>
+    <col min="7" max="7" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,79 +1111,233 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Skill.xlsx
+++ b/Tables/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>名称</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>目标状态:1000</t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1087,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1236,7 +1239,7 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">

--- a/Tables/Skill.xlsx
+++ b/Tables/Skill.xlsx
@@ -91,7 +91,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>400</t>
+    <t>200</t>
   </si>
   <si>
     <t>寒冰弹</t>
@@ -112,7 +112,7 @@
     <t>目标状态:1000</t>
   </si>
   <si>
-    <t>300</t>
+    <t>250</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/Tables/Skill.xlsx
+++ b/Tables/Skill.xlsx
@@ -91,7 +91,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>200</t>
+    <t>250</t>
   </si>
   <si>
     <t>寒冰弹</t>
@@ -112,7 +112,7 @@
     <t>目标状态:1000</t>
   </si>
   <si>
-    <t>250</t>
+    <t>300</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/Tables/Skill.xlsx
+++ b/Tables/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowWidth="24225" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>名称</t>
   </si>
@@ -85,7 +85,7 @@
     <t>pingshe</t>
   </si>
   <si>
-    <t>1500</t>
+    <t>1200</t>
   </si>
   <si>
     <t>100</t>
@@ -94,6 +94,33 @@
     <t>250</t>
   </si>
   <si>
+    <t>高级平射</t>
+  </si>
+  <si>
+    <t>1000002</t>
+  </si>
+  <si>
+    <t>gaojipingshe</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>多重射击</t>
+  </si>
+  <si>
+    <t>1000003</t>
+  </si>
+  <si>
+    <t>duochongsheji</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
     <t>寒冰弹</t>
   </si>
   <si>
@@ -110,9 +137,6 @@
   </si>
   <si>
     <t>目标状态:1000</t>
-  </si>
-  <si>
-    <t>300</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1199,58 +1223,82 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
@@ -1342,6 +1390,16 @@
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Tables/Skill.xlsx
+++ b/Tables/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>名称</t>
   </si>
@@ -97,7 +97,7 @@
     <t>高级平射</t>
   </si>
   <si>
-    <t>1000002</t>
+    <t>1001001</t>
   </si>
   <si>
     <t>gaojipingshe</t>
@@ -112,13 +112,28 @@
     <t>多重射击</t>
   </si>
   <si>
-    <t>1000003</t>
+    <t>1002001</t>
   </si>
   <si>
     <t>duochongsheji</t>
   </si>
   <si>
     <t>300</t>
+  </si>
+  <si>
+    <t>狙击</t>
+  </si>
+  <si>
+    <t>1010001</t>
+  </si>
+  <si>
+    <t>juji</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>450</t>
   </si>
   <si>
     <t>寒冰弹</t>
@@ -1108,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1223,36 +1238,24 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>29</v>
@@ -1263,7 +1266,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1278,23 +1281,21 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
         <v>34</v>
@@ -1311,14 +1312,26 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1"/>
@@ -1361,14 +1374,28 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
@@ -1400,6 +1427,76 @@
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Tables/Skill.xlsx
+++ b/Tables/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>名称</t>
   </si>
@@ -134,6 +134,24 @@
   </si>
   <si>
     <t>450</t>
+  </si>
+  <si>
+    <t>标记</t>
+  </si>
+  <si>
+    <t>1010002</t>
+  </si>
+  <si>
+    <t>biaoji</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>目标状态:1010</t>
   </si>
   <si>
     <t>寒冰弹</t>
@@ -1126,7 +1144,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1334,14 +1352,28 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>
@@ -1375,22 +1407,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">

--- a/Tables/Skill.xlsx
+++ b/Tables/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>名称</t>
   </si>
@@ -40,6 +40,9 @@
     <t>检测范围</t>
   </si>
   <si>
+    <t>仇恨</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>Range</t>
   </si>
   <si>
+    <t>Harted</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>250</t>
   </si>
   <si>
+    <t>100:1</t>
+  </si>
+  <si>
     <t>高级平射</t>
   </si>
   <si>
@@ -154,6 +163,9 @@
     <t>目标状态:1010</t>
   </si>
   <si>
+    <t>101:1</t>
+  </si>
+  <si>
     <t>寒冰弹</t>
   </si>
   <si>
@@ -170,6 +182,9 @@
   </si>
   <si>
     <t>目标状态:1000</t>
+  </si>
+  <si>
+    <t>102:1</t>
   </si>
 </sst>
 </file>
@@ -1141,21 +1156,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="6" width="23.875" customWidth="1"/>
     <col min="7" max="7" width="24.125" customWidth="1"/>
-    <col min="8" max="8" width="23.875" customWidth="1"/>
+    <col min="8" max="9" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,82 +1195,94 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1264,30 +1291,34 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1296,30 +1327,34 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1328,54 +1363,61 @@
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1384,8 +1426,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1394,8 +1437,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1404,32 +1448,36 @@
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1438,8 +1486,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1448,8 +1497,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1458,8 +1508,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1468,8 +1519,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1478,8 +1530,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1488,8 +1541,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1498,8 +1552,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="2"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1508,8 +1563,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1518,8 +1574,9 @@
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1528,6 +1585,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
       <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Skill.xlsx
+++ b/Tables/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>名称</t>
   </si>
@@ -22,6 +22,12 @@
     <t>编号</t>
   </si>
   <si>
+    <t>系列</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
     <t>表现</t>
   </si>
   <si>
@@ -43,12 +49,21 @@
     <t>仇恨</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
     <t>DisplayName</t>
   </si>
   <si>
@@ -70,12 +85,18 @@
     <t>Harted</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>int_array</t>
+  </si>
+  <si>
     <t>list</t>
   </si>
   <si>
@@ -88,6 +109,9 @@
     <t>1000001</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>pingshe</t>
   </si>
   <si>
@@ -145,16 +169,19 @@
     <t>450</t>
   </si>
   <si>
+    <t>距离越远，伤害越高</t>
+  </si>
+  <si>
     <t>标记</t>
   </si>
   <si>
-    <t>1010002</t>
+    <t>1010011</t>
   </si>
   <si>
     <t>biaoji</t>
   </si>
   <si>
-    <t>12000</t>
+    <t>10000,15000</t>
   </si>
   <si>
     <t>0</t>
@@ -163,7 +190,58 @@
     <t>目标状态:1010</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>101:1</t>
+  </si>
+  <si>
+    <t>毒箭</t>
+  </si>
+  <si>
+    <t>1011001</t>
+  </si>
+  <si>
+    <t>dujian</t>
+  </si>
+  <si>
+    <t>目标状态:1020</t>
+  </si>
+  <si>
+    <t>持续叠毒</t>
+  </si>
+  <si>
+    <t>毒药瓶</t>
+  </si>
+  <si>
+    <t>1011011</t>
+  </si>
+  <si>
+    <t>duyaoping</t>
+  </si>
+  <si>
+    <t>8000,16000</t>
+  </si>
+  <si>
+    <t>目标状态:1021</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>向随机目标投掷毒药瓶，使目标和目标周围的敌人获得3层中毒效果</t>
+  </si>
+  <si>
+    <t>毒药瓶2</t>
+  </si>
+  <si>
+    <t>1011012</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>101:2</t>
   </si>
   <si>
     <t>寒冰弹</t>
@@ -1156,21 +1234,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="6" width="23.875" customWidth="1"/>
-    <col min="7" max="7" width="24.125" customWidth="1"/>
-    <col min="8" max="9" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="6" width="23.875" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="12" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,403 +1272,656 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" ht="36" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="H16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Skill.xlsx
+++ b/Tables/Skill.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowWidth="28800" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>名称</t>
   </si>
@@ -22,9 +22,6 @@
     <t>编号</t>
   </si>
   <si>
-    <t>系列</t>
-  </si>
-  <si>
     <t>等级</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Class</t>
   </si>
   <si>
     <t>Level</t>
@@ -270,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -291,6 +285,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -298,7 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,8 +312,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,24 +367,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,6 +383,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -365,70 +421,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,187 +443,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,17 +652,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,7 +680,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,7 +689,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,15 +726,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -755,153 +734,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -918,54 +912,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1232,28 +1226,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="6" width="23.875" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="12" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="11" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,10 +1268,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1287,119 +1280,107 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1407,45 +1388,41 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1453,45 +1430,41 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1499,81 +1472,74 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1581,49 +1547,45 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1631,83 +1593,76 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" ht="36" spans="1:12">
+    </row>
+    <row r="15" ht="44" spans="1:11">
       <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1715,13 +1670,12 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1729,13 +1683,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1743,47 +1696,43 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1791,13 +1740,12 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1805,13 +1753,12 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1819,13 +1766,12 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1833,13 +1779,12 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1847,13 +1792,12 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1861,13 +1805,12 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1875,13 +1818,12 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1889,13 +1831,12 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1903,13 +1844,12 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1917,11 +1857,10 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
